--- a/Data/degree_distribution.xlsx
+++ b/Data/degree_distribution.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiranworrell/Documents/Uni - 3rd Year/Dissertation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC2CD0E-2EEF-5540-963F-C5EBA68D6B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCBD93C-4C23-6F47-9294-047B106940B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degree_distribution" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>k</t>
   </si>
@@ -44,11 +44,23 @@
   <si>
     <t>ln(p(k))</t>
   </si>
+  <si>
+    <t>cumulative_k</t>
+  </si>
+  <si>
+    <t>p(cumulative(k)</t>
+  </si>
+  <si>
+    <t>ln(cumulative_k)</t>
+  </si>
+  <si>
+    <t>ln(p(cumulative_k))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -601,6 +613,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Degree distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -723,70 +760,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,37 +835,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -837,7 +874,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -846,19 +883,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -1185,6 +1222,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Degree</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distribution Without Shaka</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1225,11 +1292,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>degree_distribution!$A$5</c:f>
+              <c:f>degree_distribution!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ln(p(k))</c:v>
+                  <c:v>p(k)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1266,7 +1333,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1302,150 +1369,144 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>degree_distribution!$B$4:$W$4</c:f>
+              <c:f>degree_distribution!$B$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.8332133440562162</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2188758248682006</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0986122886681098</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1972245773362196</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3978952727983707</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6151205168412597</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3025850929940459</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9459101490553132</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.791759469228055</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4849066497880004</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9444389791664403</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9957322735539909</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6390573296152584</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1780538303479458</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5649493574615367</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1354942159291497</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0794415416798357</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7725887222397811</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>degree_distribution!$B$5:$W$5</c:f>
+              <c:f>degree_distribution!$B$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.970291913552122</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1780538303479458</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.713572066704308</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3978952727983707</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6094379124341003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,6 +1550,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1551,6 +1667,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>p(k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1589,6 +1760,3652 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1329440735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(p(k))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.782402787141717E-2"/>
+                  <c:y val="9.1067914816415754E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$4:$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6151205168412597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$5:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3.970291913552122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.713572066704308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50DE-8945-81C6-0BCDBB7EA45D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="897774576"/>
+        <c:axId val="898173248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="897774576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898173248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898173248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(p(k))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897774576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(p(k))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3909886264216971E-2"/>
+                  <c:y val="-0.58145705745115195"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.970291913552122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.713572066704308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F49E-BC49-BE04-861DCA3F8AEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="902037888"/>
+        <c:axId val="914410112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="902037888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(k_noShaka)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914410112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914410112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(p(k_noShaka))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902037888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cumulative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Degree Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(cumulative(k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81B9-DB44-A46A-384ECC93E039}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="879945904"/>
+        <c:axId val="839373728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="879945904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> degree </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839373728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="839373728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>p(cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> degree)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879945904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ln</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>(cumulative distribution)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(p(cumulative_k))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.1113079615048119E-2"/>
+                  <c:y val="-0.23135608048993875"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6151205168412597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$11:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5.1704839950381514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8121843553724171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4067192472642533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0604430105464191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6635616461296463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6109179126442243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3672958299864741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8903717578961645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2707-184A-A4EF-4EF0C51F23D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="839032928"/>
+        <c:axId val="826891920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="839032928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(cumulative degree)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826891920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826891920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(p(cumulative degree))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839032928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cumulative Degree</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Distribution Without Shaka</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p(cumulative(k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12162051618547681"/>
+                  <c:y val="-0.10946741032370953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D86C-C44C-8C0D-986EF1BFB59E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="874858400"/>
+        <c:axId val="875063792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="874858400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cumulative Degree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875063792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="875063792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>p(cumulative degree)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874858400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ln(cumulative distribution) without Shaka</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>degree_distribution!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(p(cumulative_k))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0493875765529313E-2"/>
+                  <c:y val="-0.37892169728783903"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3978952727983707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5649493574615367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8332133440562162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9444389791664403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9957322735539909</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1354942159291497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2188758248682006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>degree_distribution!$B$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.1704839950381514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8121843553724171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4067192472642533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0604430105464191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.912023005428146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6635616461296463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6109179126442243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3672958299864741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1780538303479458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0910424533583161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8903717578961645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7725887222397811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6390573296152584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4849066497880004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3025850929940459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1972245773362196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9459101490553132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.791759469228055</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3862943611198906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0986122886681098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69314718055994529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD5C-2743-8152-F206BABC6FBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="875548752"/>
+        <c:axId val="921050256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="875548752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(cumulative degree)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921050256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="921050256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ln(p(cumulative degree))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875548752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,6 +5541,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2241,6 +6298,3102 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2761,15 +9914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>529166</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2797,15 +9950,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>448733</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2825,6 +9978,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95301</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222301</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9894E2-3DD4-EC45-ADBB-DAD90BAE1DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448732</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E0AE13-84AC-EB4F-A53E-49FB8242D53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482601</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B006684-76AD-BC48-8C31-EFDDF3075AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>567267</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ED08CD-4ED3-884A-888B-B2EEA409D23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C32898-3949-AD49-B48C-AF75D67685BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB86FEA-578F-E140-9B57-63F52686A5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3129,84 +10498,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
       <c r="F1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
         <v>9</v>
-      </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
-        <v>101</v>
       </c>
       <c r="K1">
         <v>10</v>
       </c>
       <c r="L1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
         <v>19</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>20</v>
       </c>
-      <c r="R1">
-        <v>14</v>
-      </c>
-      <c r="S1">
+      <c r="T1">
+        <v>23</v>
+      </c>
+      <c r="U1">
         <v>24</v>
       </c>
-      <c r="T1">
-        <v>13</v>
-      </c>
-      <c r="U1">
-        <v>23</v>
-      </c>
       <c r="V1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="W1">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -3214,37 +10586,37 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>41</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -3253,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3262,19 +10634,19 @@
         <v>2</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -3286,91 +10658,91 @@
       </c>
       <c r="B4">
         <f>LN(B1)</f>
-        <v>2.8332133440562162</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:W4" si="0">LN(C1)</f>
-        <v>3.2188758248682006</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.3862943611198906</v>
+        <v>1.0986122886681098</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3862943611198906</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.0986122886681098</v>
+        <v>1.6094379124341003</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.69314718055994529</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.1972245773362196</v>
+        <v>1.9459101490553132</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>2.3978952727983707</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>4.6151205168412597</v>
+        <v>2.1972245773362196</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="L4">
-        <f>LN(L1)</f>
-        <v>1.9459101490553132</v>
+        <f t="shared" si="0"/>
+        <v>2.3978952727983707</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1.791759469228055</v>
+        <v>2.4849066497880004</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>2.4849066497880004</v>
+        <v>2.5649493574615367</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>1.6094379124341003</v>
+        <v>2.6390573296152584</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>2.9444389791664403</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>2.9957322735539909</v>
+        <v>2.8332133440562162</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>2.6390573296152584</v>
+        <v>2.9444389791664403</v>
       </c>
       <c r="S4">
-        <f>LN(S1)</f>
-        <v>3.1780538303479458</v>
+        <f t="shared" si="0"/>
+        <v>2.9957322735539909</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>2.5649493574615367</v>
+        <v>3.1354942159291497</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>3.1354942159291497</v>
+        <v>3.1780538303479458</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>2.0794415416798357</v>
+        <v>3.2188758248682006</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>2.7725887222397811</v>
+        <v>4.6151205168412597</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3378,40 +10750,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>LN(B2)</f>
-        <v>0.69314718055994529</v>
+        <f t="shared" ref="B5:W5" si="1">LN(B2)</f>
+        <v>3.970291913552122</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:W5" si="1">LN(C2)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.713572066704308</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.0794415416798357</v>
+        <v>3.1780538303479458</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3.970291913552122</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>3.1780538303479458</v>
+        <v>2.3978952727983707</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>3.713572066704308</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.69314718055994529</v>
+        <v>2.0794415416798357</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.69314718055994529</v>
+        <v>1.6094379124341003</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -3419,7 +10791,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>2.0794415416798357</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
@@ -3430,8 +10802,8 @@
         <v>0.69314718055994529</v>
       </c>
       <c r="O5">
-        <f>LN(O2)</f>
-        <v>2.3978952727983707</v>
+        <f t="shared" si="1"/>
+        <v>0.69314718055994529</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
@@ -3443,15 +10815,15 @@
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>0.69314718055994529</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.69314718055994529</v>
       </c>
       <c r="T5">
         <f t="shared" si="1"/>
-        <v>0.69314718055994529</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" si="1"/>
@@ -3459,10 +10831,360 @@
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>1.6094379124341003</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+      <c r="R7">
+        <v>19</v>
+      </c>
+      <c r="S7">
+        <v>20</v>
+      </c>
+      <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>25</v>
+      </c>
+      <c r="W7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B$2:$W$2)</f>
+        <v>176</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C$2:$W$2)</f>
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D$2:$W$2)</f>
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E$2:$W$2)</f>
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F$2:$W$2)</f>
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G$2:$W$2)</f>
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H$2:$W$2)</f>
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I$2:$W$2)</f>
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <f>SUM(J$2:$W$2)</f>
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K$2:$W$2)</f>
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L$2:$W$2)</f>
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <f>SUM(M$2:$W$2)</f>
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <f>SUM(N$2:$W$2)</f>
+        <v>14</v>
+      </c>
+      <c r="O8">
+        <f>SUM(O$2:$W$2)</f>
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <f>SUM(P$2:$W$2)</f>
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(Q$2:$W$2)</f>
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <f>SUM(R$2:$W$2)</f>
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <f>SUM(S$2:$W$2)</f>
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <f>SUM(T$2:$W$2)</f>
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <f>SUM(U$2:$W$2)</f>
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <f>SUM(V$2:$W$2)</f>
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <f>SUM(W$2:$W$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f>LN(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:W10" si="2">LN(C7)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>2.8332133440562162</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>2.9444389791664403</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>3.1354942159291497</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>4.6151205168412597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>LN(B8)</f>
+        <v>5.1704839950381514</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:W11" si="3">LN(C8)</f>
+        <v>4.8121843553724171</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>4.4067192472642533</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>4.0604430105464191</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.6635616461296463</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3.3672958299864741</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>2.8903717578961645</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="3"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
